--- a/src/resources/statesDF_vs carol.xlsx
+++ b/src/resources/statesDF_vs carol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Documents\Download-Tweets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoa\Documents\Download-Tweets\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E6461-C28E-4BC7-843E-7D47266047C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46DDD1-6D8B-4019-8379-C24945AA8293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,6 +466,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -821,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,8 +851,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <f>11326+13</f>
-        <v>11339</v>
+        <v>4.0545747552948228</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -865,8 +865,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f>12495+90</f>
-        <v>12585</v>
+        <v>4.0998532198843813</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -880,8 +879,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>2581+1</f>
-        <v>2582</v>
+        <v>3.4119562379304016</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -895,8 +893,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <f>2822+11</f>
-        <v>2833</v>
+        <v>3.4522465745204372</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -910,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1913</v>
+        <v>3.2817149700272958</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -924,8 +921,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <f>8818+19</f>
-        <v>8837</v>
+        <v>3.9463048549934747</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -939,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>870</v>
+        <v>2.9395192526186187</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -953,8 +949,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <f>4986+7</f>
-        <v>4993</v>
+        <v>3.6983615660551097</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -968,8 +963,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <f>1232+1</f>
-        <v>1233</v>
+        <v>3.0909630765957314</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -983,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1052</v>
+        <v>3.0220157398177201</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -997,8 +991,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <f>805+1</f>
-        <v>806</v>
+        <v>2.9063350418050908</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -1012,8 +1005,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <f>1858+1</f>
-        <v>1859</v>
+        <v>3.2692793897718984</v>
       </c>
       <c r="D13" t="s">
         <v>42</v>
@@ -1027,8 +1019,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <f>2185+3249</f>
-        <v>5434</v>
+        <v>3.735119634081872</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1042,8 +1033,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <f>1259+198</f>
-        <v>1457</v>
+        <v>3.1634595517699902</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -1057,7 +1047,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>1003</v>
+        <v>3.0013009330204183</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1071,7 +1061,7 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>555</v>
+        <v>2.7442929831226763</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1085,8 +1075,7 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <f>1217+165</f>
-        <v>1382</v>
+        <v>3.1405080430381798</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1100,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>230</v>
+        <v>2.3617278360175931</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1114,8 +1103,7 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <f>327+3</f>
-        <v>330</v>
+        <v>2.5185139398778875</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1129,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>92</v>
+        <v>1.9637878273455553</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -1143,8 +1131,7 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <f>423+96</f>
-        <v>519</v>
+        <v>2.7151673578484576</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
@@ -1158,8 +1145,7 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <f>359+15</f>
-        <v>374</v>
+        <v>2.5728716022004803</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
@@ -1173,8 +1159,7 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <f>184+3</f>
-        <v>187</v>
+        <v>2.271841606536499</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -1188,8 +1173,7 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <f>73+5</f>
-        <v>78</v>
+        <v>1.8920946026904804</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -1203,8 +1187,7 @@
         <v>34</v>
       </c>
       <c r="C26">
-        <f>66+1</f>
-        <v>67</v>
+        <v>1.8260748027008264</v>
       </c>
       <c r="D26" t="s">
         <v>56</v>
@@ -1218,8 +1201,7 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <f>69+1</f>
-        <v>70</v>
+        <v>1.8450980400142569</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -1233,7 +1215,7 @@
         <v>36</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>1.3222192947339193</v>
       </c>
       <c r="D28" t="s">
         <v>37</v>
